--- a/data/excel/BrNews_fool_V.xlsx
+++ b/data/excel/BrNews_fool_V.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba4es16\Work Folders\Documents\Aufsätze\Leuven 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba4es16\Work Folders\Documents\Aufsätze\Leuven 2022\R_project_verbs_of_deceiving\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2048,8 +2048,8 @@
   <dimension ref="A1:AA1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A567"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,7 +6022,7 @@
         <v>376</v>
       </c>
       <c r="G64" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H64" t="s">
         <v>372</v>
